--- a/rnaSample/rnaSample_J.PLAGGENBERG_08.19.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_08.19.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -87,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -116,6 +116,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -173,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,19 +188,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,8 +227,8 @@
   </sheetPr>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -226,14 +236,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -285,7 +295,7 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -300,16 +310,19 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3" t="b">
+      <c r="H2" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -323,7 +336,7 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -338,16 +351,19 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="b">
+      <c r="H3" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="b">
+      <c r="K3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -361,7 +377,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -376,16 +392,19 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="b">
+      <c r="H4" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="3" t="b">
+      <c r="K4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -399,7 +418,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -414,16 +433,19 @@
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="b">
+      <c r="H5" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="3" t="b">
+      <c r="K5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -437,7 +459,7 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -452,16 +474,19 @@
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="b">
+      <c r="H6" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="3" t="b">
+      <c r="K6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -475,7 +500,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -490,16 +515,19 @@
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="b">
+      <c r="H7" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="b">
+      <c r="K7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -513,7 +541,7 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -528,16 +556,19 @@
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="b">
+      <c r="H8" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="3" t="b">
+      <c r="K8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -551,7 +582,7 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -566,16 +597,19 @@
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="b">
+      <c r="H9" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="3" t="b">
+      <c r="K9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -589,7 +623,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -604,16 +638,19 @@
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="b">
+      <c r="H10" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="3" t="b">
+      <c r="K10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -627,7 +664,7 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -642,16 +679,19 @@
       <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="b">
+      <c r="H11" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="3" t="b">
+      <c r="K11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -665,7 +705,7 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -680,16 +720,19 @@
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="b">
+      <c r="H12" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="3" t="b">
+      <c r="K12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -703,7 +746,7 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -718,16 +761,19 @@
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="b">
+      <c r="H13" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="3" t="b">
+      <c r="K13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">

--- a/rnaSample/rnaSample_J.PLAGGENBERG_08.19.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_08.19.19.xlsx
@@ -122,17 +122,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -179,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,15 +197,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,10 +233,10 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
@@ -310,8 +315,7 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="n">
@@ -321,7 +325,7 @@
       <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -351,8 +355,7 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="5" t="n">
@@ -362,7 +365,7 @@
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -392,8 +395,7 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="n">
@@ -403,7 +405,7 @@
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -433,8 +435,7 @@
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
@@ -444,7 +445,7 @@
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -474,8 +475,7 @@
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="n">
@@ -485,7 +485,7 @@
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -515,8 +515,7 @@
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="n">
@@ -526,7 +525,7 @@
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -556,8 +555,7 @@
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
@@ -567,7 +565,7 @@
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -597,8 +595,7 @@
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="n">
@@ -608,7 +605,7 @@
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -638,8 +635,7 @@
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H10" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="5" t="n">
@@ -649,7 +645,7 @@
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -679,8 +675,7 @@
       <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H11" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
@@ -690,7 +685,7 @@
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -720,8 +715,7 @@
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H12" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="n">
@@ -731,7 +725,7 @@
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -761,8 +755,7 @@
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H13" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="5" t="n">
@@ -772,7 +765,7 @@
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
